--- a/students.xlsx
+++ b/students.xlsx
@@ -32,61 +32,61 @@
     <t>Score</t>
   </si>
   <si>
-    <t>qmuxl</t>
-  </si>
-  <si>
-    <t>xifgitid</t>
-  </si>
-  <si>
-    <t>2000-02-15</t>
-  </si>
-  <si>
-    <t>Class3</t>
-  </si>
-  <si>
-    <t>qyx</t>
-  </si>
-  <si>
-    <t>xtntan</t>
-  </si>
-  <si>
-    <t>2000-07-25</t>
+    <t>pmdbzvdi</t>
+  </si>
+  <si>
+    <t>toaiog</t>
+  </si>
+  <si>
+    <t>2004-01-26</t>
+  </si>
+  <si>
+    <t>Class4</t>
+  </si>
+  <si>
+    <t>nzcqtwr</t>
+  </si>
+  <si>
+    <t>indihnop</t>
+  </si>
+  <si>
+    <t>2007-11-27</t>
   </si>
   <si>
     <t>Class1</t>
   </si>
   <si>
-    <t>pbh</t>
-  </si>
-  <si>
-    <t>hwlwr</t>
-  </si>
-  <si>
-    <t>2005-01-21</t>
+    <t>prayzo</t>
+  </si>
+  <si>
+    <t>qbfil</t>
+  </si>
+  <si>
+    <t>2005-05-03</t>
   </si>
   <si>
     <t>Class5</t>
   </si>
   <si>
-    <t>kfjv</t>
-  </si>
-  <si>
-    <t>qtz</t>
-  </si>
-  <si>
-    <t>2006-11-03</t>
+    <t>emngtbn</t>
+  </si>
+  <si>
+    <t>wek</t>
+  </si>
+  <si>
+    <t>2006-02-10</t>
+  </si>
+  <si>
+    <t>jajc</t>
+  </si>
+  <si>
+    <t>oermgixt</t>
+  </si>
+  <si>
+    <t>2004-09-23</t>
   </si>
   <si>
     <t>Class2</t>
-  </si>
-  <si>
-    <t>vkmz</t>
-  </si>
-  <si>
-    <t>pwnhnf</t>
-  </si>
-  <si>
-    <t>2007-01-06</t>
   </si>
 </sst>
 </file>
@@ -159,7 +159,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>21.0</v>
+        <v>26.0</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -174,12 +174,12 @@
         <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>66.0</v>
+        <v>81.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>22.0</v>
+        <v>27.0</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -194,12 +194,12 @@
         <v>13</v>
       </c>
       <c r="F3" t="n">
-        <v>70.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>23.0</v>
+        <v>28.0</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -214,12 +214,12 @@
         <v>17</v>
       </c>
       <c r="F4" t="n">
-        <v>70.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>24.0</v>
+        <v>29.0</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
@@ -231,30 +231,30 @@
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F5" t="n">
-        <v>70.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>24</v>
       </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
       <c r="F6" t="n">
-        <v>74.0</v>
+        <v>69.0</v>
       </c>
     </row>
   </sheetData>

--- a/students.xlsx
+++ b/students.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>Student ID</t>
   </si>
@@ -32,61 +32,106 @@
     <t>Score</t>
   </si>
   <si>
-    <t>pmdbzvdi</t>
-  </si>
-  <si>
-    <t>toaiog</t>
-  </si>
-  <si>
-    <t>2004-01-26</t>
+    <t>eooha</t>
+  </si>
+  <si>
+    <t>zfrh</t>
+  </si>
+  <si>
+    <t>2009-10-28</t>
+  </si>
+  <si>
+    <t>Class3</t>
+  </si>
+  <si>
+    <t>nudll</t>
+  </si>
+  <si>
+    <t>cxpnmte</t>
+  </si>
+  <si>
+    <t>2004-12-12</t>
+  </si>
+  <si>
+    <t>wpaoox</t>
+  </si>
+  <si>
+    <t>fkib</t>
+  </si>
+  <si>
+    <t>2001-12-11</t>
+  </si>
+  <si>
+    <t>mrpxoarx</t>
+  </si>
+  <si>
+    <t>cekuzxyj</t>
+  </si>
+  <si>
+    <t>2006-04-04</t>
+  </si>
+  <si>
+    <t>Class2</t>
+  </si>
+  <si>
+    <t>wqhr</t>
+  </si>
+  <si>
+    <t>cxas</t>
+  </si>
+  <si>
+    <t>2002-01-04</t>
+  </si>
+  <si>
+    <t>Class1</t>
+  </si>
+  <si>
+    <t>pnw</t>
+  </si>
+  <si>
+    <t>xan</t>
+  </si>
+  <si>
+    <t>2008-10-25</t>
+  </si>
+  <si>
+    <t>nqomgm</t>
+  </si>
+  <si>
+    <t>kdyuopf</t>
+  </si>
+  <si>
+    <t>2004-12-07</t>
   </si>
   <si>
     <t>Class4</t>
   </si>
   <si>
-    <t>nzcqtwr</t>
-  </si>
-  <si>
-    <t>indihnop</t>
-  </si>
-  <si>
-    <t>2007-11-27</t>
-  </si>
-  <si>
-    <t>Class1</t>
-  </si>
-  <si>
-    <t>prayzo</t>
-  </si>
-  <si>
-    <t>qbfil</t>
-  </si>
-  <si>
-    <t>2005-05-03</t>
-  </si>
-  <si>
-    <t>Class5</t>
-  </si>
-  <si>
-    <t>emngtbn</t>
-  </si>
-  <si>
-    <t>wek</t>
-  </si>
-  <si>
-    <t>2006-02-10</t>
-  </si>
-  <si>
-    <t>jajc</t>
-  </si>
-  <si>
-    <t>oermgixt</t>
-  </si>
-  <si>
-    <t>2004-09-23</t>
-  </si>
-  <si>
-    <t>Class2</t>
+    <t>dhbubf</t>
+  </si>
+  <si>
+    <t>czwvs</t>
+  </si>
+  <si>
+    <t>2004-01-25</t>
+  </si>
+  <si>
+    <t>aufci</t>
+  </si>
+  <si>
+    <t>shxf</t>
+  </si>
+  <si>
+    <t>2000-08-09</t>
+  </si>
+  <si>
+    <t>uje</t>
+  </si>
+  <si>
+    <t>teggecvs</t>
+  </si>
+  <si>
+    <t>2000-08-05</t>
   </si>
 </sst>
 </file>
@@ -131,7 +176,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -159,7 +204,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>26.0</v>
+        <v>47.0</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -174,12 +219,12 @@
         <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>81.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>27.0</v>
+        <v>48.0</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -191,70 +236,170 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F3" t="n">
-        <v>79.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>28.0</v>
+        <v>49.0</v>
       </c>
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F4" t="n">
-        <v>76.0</v>
+        <v>71.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>29.0</v>
+        <v>50.0</v>
       </c>
       <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
       <c r="F5" t="n">
-        <v>60.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>30.0</v>
+        <v>51.0</v>
       </c>
       <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>23</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="n">
+        <v>66.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="F6" t="n">
-        <v>69.0</v>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="n">
+        <v>74.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="n">
+        <v>75.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="n">
+        <v>55.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="n">
+        <v>70.0</v>
       </c>
     </row>
   </sheetData>
